--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="28780" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="要再做的题目" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -18,9 +19,278 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题号1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题号2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.4.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.4.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.4.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.5.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成/2种做法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unordered_map/heap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double（很奇怪的题目）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题号3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题号4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很神奇，会超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正与不修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数加减法；Java有BigInteger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么有人0ms过了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看清题意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不说了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划？为什么这么慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动归回去自己写一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和前面某道题一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧拉通路/回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先做乘法，再做加法进位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三层遍历，简单题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为啥MAP过不去T T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -33,6 +303,44 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -54,14 +362,89 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="37">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -390,13 +773,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="4" width="20.33203125" style="1"/>
+    <col min="5" max="5" width="50.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="1"/>
+    <col min="7" max="7" width="58" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="1"/>
+    <col min="9" max="9" width="50.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="73" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="20.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>136</v>
+      </c>
+      <c r="D2" s="1">
+        <v>137</v>
+      </c>
+      <c r="F2" s="1">
+        <v>137</v>
+      </c>
+      <c r="H2" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>238</v>
+      </c>
+      <c r="D3" s="1">
+        <v>122</v>
+      </c>
+      <c r="F3" s="1">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>319</v>
+      </c>
+      <c r="D4" s="1">
+        <v>260</v>
+      </c>
+      <c r="F4" s="1">
+        <v>260</v>
+      </c>
+      <c r="H4" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1">
+        <v>94</v>
+      </c>
+      <c r="F5" s="1">
+        <v>94</v>
+      </c>
+      <c r="H5" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>318</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>268</v>
+      </c>
+      <c r="D7" s="1">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>216</v>
+      </c>
+      <c r="D8" s="1">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1">
+        <v>75</v>
+      </c>
+      <c r="H8" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1">
+        <v>59</v>
+      </c>
+      <c r="H9" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>240</v>
+      </c>
+      <c r="D11" s="1">
+        <v>300</v>
+      </c>
+      <c r="F11" s="1">
+        <v>300</v>
+      </c>
+      <c r="H11" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>338</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1">
+        <v>347</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="28" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>187</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1">
+        <v>306</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="28" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1">
+        <v>139</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1">
+        <v>69</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <v>227</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1">
+        <v>222</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1">
+        <v>208</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1">
+        <v>148</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1">
+        <v>322</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1">
+        <v>133</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="1">
+        <v>228</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1">
+        <v>332</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1">
+        <v>18</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="1">
+        <v>221</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="1">
+        <v>150</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1">
+        <v>93</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1">
+        <v>79</v>
+      </c>
+      <c r="D29" s="1">
+        <v>61</v>
+      </c>
+      <c r="F29" s="1">
+        <v>143</v>
+      </c>
+      <c r="H29" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1">
+        <v>324</v>
+      </c>
+      <c r="D30" s="1">
+        <v>152</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1">
+        <v>71</v>
+      </c>
+      <c r="D31" s="1">
+        <v>210</v>
+      </c>
+      <c r="F31" s="1">
+        <v>98</v>
+      </c>
+      <c r="H31" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1">
+        <v>127</v>
+      </c>
+      <c r="D32" s="1">
+        <v>179</v>
+      </c>
+      <c r="F32" s="1">
+        <v>220</v>
+      </c>
+      <c r="H32" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1">
+        <v>91</v>
+      </c>
+      <c r="D34" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1">
+        <v>29</v>
+      </c>
+      <c r="D35" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1">
+        <v>166</v>
+      </c>
+      <c r="D36" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="1">
+        <v>287</v>
+      </c>
+      <c r="D37" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="1">
+        <v>352</v>
+      </c>
+      <c r="D38" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1">
+        <v>154</v>
+      </c>
+      <c r="D39" s="1">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
